--- a/Dokumente/Projektablauf.xlsx
+++ b/Dokumente/Projektablauf.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{91587A72-2351-4010-ADCE-869BD1D01BAC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{684E4B37-B8C0-4E8C-8B7B-22E34D407AB0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A3F8C14-90FC-4F6F-960F-AB8096A8FDAE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="58">
   <si>
     <t>Kalenderwoche</t>
   </si>
@@ -171,9 +171,6 @@
   </si>
   <si>
     <t>Methode "changePedstrainSettings"</t>
-  </si>
-  <si>
-    <t>(X)</t>
   </si>
   <si>
     <t>Sprint 2 PreReview
@@ -282,7 +279,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -291,49 +288,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -743,7 +698,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -757,17 +712,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -792,42 +737,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -871,15 +795,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -901,10 +821,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1185,10 +1105,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B5:Y80"/>
+  <dimension ref="B5:Y82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V27" sqref="V27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1208,202 +1128,202 @@
     </row>
     <row r="7" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="23"/>
-      <c r="C8" s="110" t="s">
+      <c r="B8" s="13"/>
+      <c r="C8" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="111"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="111" t="s">
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="111"/>
-      <c r="H8" s="111" t="s">
+      <c r="G8" s="76"/>
+      <c r="H8" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="111"/>
-      <c r="J8" s="111"/>
-      <c r="K8" s="111" t="s">
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="L8" s="111"/>
-      <c r="M8" s="112"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="31"/>
-      <c r="S8" s="31"/>
-      <c r="T8" s="31"/>
-      <c r="U8" s="31"/>
-      <c r="V8" s="31"/>
-      <c r="W8" s="31"/>
-      <c r="X8" s="31"/>
-      <c r="Y8" s="31"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="77"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="21"/>
     </row>
     <row r="9" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B9" s="109" t="s">
+      <c r="B9" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="106" t="s">
+      <c r="C9" s="24"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="107"/>
-      <c r="L9" s="108"/>
-      <c r="M9" s="46"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="106" t="s">
+      <c r="K9" s="72"/>
+      <c r="L9" s="73"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="Q9" s="108"/>
-      <c r="R9" s="46"/>
-      <c r="S9" s="35"/>
-      <c r="T9" s="35"/>
-      <c r="U9" s="35"/>
-      <c r="V9" s="35"/>
-      <c r="W9" s="35"/>
-      <c r="X9" s="40"/>
-      <c r="Y9" s="23" t="s">
+      <c r="Q9" s="73"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25"/>
+      <c r="W9" s="25"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="109"/>
-      <c r="C10" s="36">
+      <c r="B10" s="74"/>
+      <c r="C10" s="26">
         <v>44</v>
       </c>
-      <c r="D10" s="37">
+      <c r="D10" s="27">
         <v>45</v>
       </c>
-      <c r="E10" s="37">
+      <c r="E10" s="27">
         <v>46</v>
       </c>
-      <c r="F10" s="37">
+      <c r="F10" s="27">
         <v>47</v>
       </c>
-      <c r="G10" s="37">
+      <c r="G10" s="27">
         <v>48</v>
       </c>
-      <c r="H10" s="37">
+      <c r="H10" s="27">
         <v>49</v>
       </c>
-      <c r="I10" s="41">
+      <c r="I10" s="31">
         <v>50</v>
       </c>
-      <c r="J10" s="51">
+      <c r="J10" s="36">
         <v>51</v>
       </c>
-      <c r="K10" s="38">
+      <c r="K10" s="28">
         <v>52</v>
       </c>
-      <c r="L10" s="39">
+      <c r="L10" s="29">
         <v>1</v>
       </c>
-      <c r="M10" s="47">
+      <c r="M10" s="35">
         <v>2</v>
       </c>
-      <c r="N10" s="37">
+      <c r="N10" s="27">
         <v>3</v>
       </c>
-      <c r="O10" s="41">
+      <c r="O10" s="31">
         <v>4</v>
       </c>
-      <c r="P10" s="51">
+      <c r="P10" s="36">
         <v>5</v>
       </c>
-      <c r="Q10" s="39">
+      <c r="Q10" s="29">
         <v>6</v>
       </c>
-      <c r="R10" s="47">
+      <c r="R10" s="35">
         <v>7</v>
       </c>
-      <c r="S10" s="37">
+      <c r="S10" s="27">
         <v>8</v>
       </c>
-      <c r="T10" s="37">
+      <c r="T10" s="27">
         <v>9</v>
       </c>
-      <c r="U10" s="37">
+      <c r="U10" s="27">
         <v>10</v>
       </c>
-      <c r="V10" s="37">
+      <c r="V10" s="27">
         <v>11</v>
       </c>
-      <c r="W10" s="37">
+      <c r="W10" s="27">
         <v>12</v>
       </c>
-      <c r="X10" s="41">
+      <c r="X10" s="31">
         <v>13</v>
       </c>
-      <c r="Y10" s="73">
+      <c r="Y10" s="42">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="24"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="42"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="53"/>
-      <c r="R11" s="32"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="33"/>
-      <c r="U11" s="33"/>
-      <c r="V11" s="33"/>
-      <c r="W11" s="33"/>
-      <c r="X11" s="42"/>
-      <c r="Y11" s="74"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="23"/>
+      <c r="W11" s="23"/>
+      <c r="X11" s="32"/>
+      <c r="Y11" s="43"/>
     </row>
     <row r="12" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="24"/>
-      <c r="C12" s="22"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="12"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="54"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="39"/>
       <c r="K12" s="6"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="22"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="12"/>
       <c r="N12" s="6"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="55"/>
-      <c r="R12" s="22"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="12"/>
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
       <c r="U12" s="6"/>
       <c r="V12" s="6"/>
       <c r="W12" s="6"/>
-      <c r="X12" s="43"/>
-      <c r="Y12" s="24"/>
+      <c r="X12" s="33"/>
+      <c r="Y12" s="14"/>
     </row>
     <row r="13" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="76" t="s">
+      <c r="C13" s="45" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="8"/>
@@ -1411,29 +1331,29 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="78"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="47"/>
       <c r="K13" s="5"/>
-      <c r="L13" s="79"/>
-      <c r="M13" s="21"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="11"/>
       <c r="N13" s="5"/>
-      <c r="O13" s="77"/>
-      <c r="P13" s="78"/>
-      <c r="Q13" s="79"/>
-      <c r="R13" s="21"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="48"/>
+      <c r="R13" s="11"/>
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
       <c r="V13" s="5"/>
       <c r="W13" s="5"/>
-      <c r="X13" s="77"/>
-      <c r="Y13" s="25"/>
+      <c r="X13" s="46"/>
+      <c r="Y13" s="15"/>
     </row>
     <row r="14" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="76"/>
+      <c r="C14" s="45"/>
       <c r="D14" s="8" t="s">
         <v>2</v>
       </c>
@@ -1443,1823 +1363,1879 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="78"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="47"/>
       <c r="K14" s="5"/>
-      <c r="L14" s="79"/>
-      <c r="M14" s="21"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="11"/>
       <c r="N14" s="5"/>
-      <c r="O14" s="77"/>
-      <c r="P14" s="78"/>
-      <c r="Q14" s="79"/>
-      <c r="R14" s="21"/>
+      <c r="O14" s="46"/>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="48"/>
+      <c r="R14" s="11"/>
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
       <c r="U14" s="5"/>
       <c r="V14" s="5"/>
       <c r="W14" s="5"/>
-      <c r="X14" s="77"/>
-      <c r="Y14" s="25"/>
+      <c r="X14" s="46"/>
+      <c r="Y14" s="15"/>
     </row>
     <row r="15" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="89" t="s">
+      <c r="B15" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="90"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="91" t="s">
+      <c r="C15" s="59"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60" t="s">
         <v>2</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="78"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="47"/>
       <c r="K15" s="5"/>
-      <c r="L15" s="79"/>
-      <c r="M15" s="21"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="11"/>
       <c r="N15" s="5"/>
-      <c r="O15" s="77"/>
-      <c r="P15" s="78"/>
-      <c r="Q15" s="79"/>
-      <c r="R15" s="21"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="48"/>
+      <c r="R15" s="11"/>
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
       <c r="U15" s="5"/>
       <c r="V15" s="5"/>
       <c r="W15" s="5"/>
-      <c r="X15" s="77"/>
-      <c r="Y15" s="25"/>
+      <c r="X15" s="46"/>
+      <c r="Y15" s="15"/>
     </row>
     <row r="16" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="24"/>
-      <c r="C16" s="76"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="45"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="78"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="47"/>
       <c r="K16" s="5"/>
-      <c r="L16" s="79"/>
-      <c r="M16" s="21"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="11"/>
       <c r="N16" s="5"/>
-      <c r="O16" s="77"/>
-      <c r="P16" s="78"/>
-      <c r="Q16" s="79"/>
-      <c r="R16" s="21"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="47"/>
+      <c r="Q16" s="48"/>
+      <c r="R16" s="11"/>
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
       <c r="U16" s="5"/>
       <c r="V16" s="5"/>
       <c r="W16" s="5"/>
-      <c r="X16" s="77"/>
-      <c r="Y16" s="25"/>
+      <c r="X16" s="46"/>
+      <c r="Y16" s="15"/>
     </row>
     <row r="17" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="76"/>
+      <c r="C17" s="45"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="78"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="47"/>
       <c r="K17" s="5"/>
-      <c r="L17" s="79"/>
-      <c r="M17" s="21"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="11"/>
       <c r="N17" s="5"/>
-      <c r="O17" s="77"/>
-      <c r="P17" s="78"/>
-      <c r="Q17" s="79"/>
-      <c r="R17" s="21"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="47"/>
+      <c r="Q17" s="48"/>
+      <c r="R17" s="11"/>
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
       <c r="U17" s="5"/>
       <c r="V17" s="5"/>
       <c r="W17" s="5"/>
-      <c r="X17" s="77"/>
-      <c r="Y17" s="25"/>
+      <c r="X17" s="46"/>
+      <c r="Y17" s="15"/>
     </row>
     <row r="18" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="76" t="s">
+      <c r="C18" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="80"/>
+      <c r="D18" s="49"/>
       <c r="E18" s="8"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="78"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="47"/>
       <c r="K18" s="5"/>
-      <c r="L18" s="79"/>
-      <c r="M18" s="21"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="11"/>
       <c r="N18" s="5"/>
-      <c r="O18" s="77"/>
-      <c r="P18" s="78"/>
-      <c r="Q18" s="79"/>
-      <c r="R18" s="21"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="47"/>
+      <c r="Q18" s="48"/>
+      <c r="R18" s="11"/>
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
       <c r="U18" s="5"/>
       <c r="V18" s="5"/>
       <c r="W18" s="5"/>
-      <c r="X18" s="77"/>
-      <c r="Y18" s="25"/>
+      <c r="X18" s="46"/>
+      <c r="Y18" s="15"/>
     </row>
     <row r="19" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="26"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="80"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="49"/>
       <c r="E19" s="8"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="G19" s="5"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="78"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="47"/>
       <c r="K19" s="5"/>
-      <c r="L19" s="79"/>
-      <c r="M19" s="21"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="11"/>
       <c r="N19" s="5"/>
-      <c r="O19" s="77"/>
-      <c r="P19" s="78"/>
-      <c r="Q19" s="79"/>
-      <c r="R19" s="21"/>
+      <c r="O19" s="46"/>
+      <c r="P19" s="47"/>
+      <c r="Q19" s="48"/>
+      <c r="R19" s="11"/>
       <c r="S19" s="5"/>
       <c r="T19" s="5"/>
       <c r="U19" s="5"/>
       <c r="V19" s="5"/>
       <c r="W19" s="5"/>
-      <c r="X19" s="77"/>
-      <c r="Y19" s="25"/>
+      <c r="X19" s="46"/>
+      <c r="Y19" s="15"/>
     </row>
     <row r="20" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="27"/>
-      <c r="C20" s="76"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="45"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="5"/>
       <c r="G20" s="8"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="78"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="47"/>
       <c r="K20" s="5"/>
-      <c r="L20" s="79"/>
-      <c r="M20" s="21"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="11"/>
       <c r="N20" s="5"/>
-      <c r="O20" s="77"/>
-      <c r="P20" s="78"/>
-      <c r="Q20" s="79"/>
-      <c r="R20" s="21"/>
+      <c r="O20" s="46"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="48"/>
+      <c r="R20" s="11"/>
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
       <c r="U20" s="5"/>
       <c r="V20" s="5"/>
       <c r="W20" s="5"/>
-      <c r="X20" s="77"/>
-      <c r="Y20" s="25"/>
+      <c r="X20" s="46"/>
+      <c r="Y20" s="15"/>
     </row>
     <row r="21" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="21"/>
+      <c r="C21" s="11"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="77"/>
-      <c r="J21" s="78"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="47"/>
       <c r="K21" s="5"/>
-      <c r="L21" s="79"/>
-      <c r="M21" s="21"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="11"/>
       <c r="N21" s="5"/>
-      <c r="O21" s="77"/>
-      <c r="P21" s="78"/>
-      <c r="Q21" s="79"/>
-      <c r="R21" s="21"/>
+      <c r="O21" s="46"/>
+      <c r="P21" s="47"/>
+      <c r="Q21" s="48"/>
+      <c r="R21" s="11"/>
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
       <c r="U21" s="5"/>
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
-      <c r="X21" s="77"/>
-      <c r="Y21" s="25"/>
+      <c r="X21" s="46"/>
+      <c r="Y21" s="15"/>
     </row>
     <row r="22" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="21"/>
+      <c r="C22" s="11"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="77"/>
-      <c r="J22" s="78"/>
-      <c r="K22" s="80"/>
-      <c r="L22" s="81"/>
-      <c r="M22" s="21"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="11"/>
       <c r="N22" s="5"/>
-      <c r="O22" s="82"/>
-      <c r="P22" s="78"/>
-      <c r="Q22" s="81"/>
-      <c r="R22" s="21"/>
-      <c r="S22" s="80"/>
+      <c r="O22" s="51"/>
+      <c r="P22" s="47"/>
+      <c r="Q22" s="50"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="49"/>
       <c r="T22" s="5"/>
-      <c r="U22" s="8" t="s">
-        <v>2</v>
-      </c>
+      <c r="U22" s="8"/>
       <c r="V22" s="5"/>
       <c r="W22" s="5"/>
-      <c r="X22" s="77"/>
-      <c r="Y22" s="25"/>
+      <c r="X22" s="46"/>
+      <c r="Y22" s="15"/>
     </row>
     <row r="23" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="21"/>
+      <c r="C23" s="11"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="77"/>
-      <c r="J23" s="78"/>
-      <c r="K23" s="80"/>
-      <c r="L23" s="81"/>
-      <c r="M23" s="21"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="11"/>
       <c r="N23" s="5"/>
-      <c r="O23" s="83" t="s">
-        <v>2</v>
-      </c>
-      <c r="P23" s="84"/>
-      <c r="Q23" s="79"/>
-      <c r="R23" s="21"/>
+      <c r="O23" s="52"/>
+      <c r="P23" s="53"/>
+      <c r="Q23" s="48"/>
+      <c r="R23" s="11"/>
       <c r="S23" s="5"/>
       <c r="T23" s="5"/>
-      <c r="U23" s="80"/>
+      <c r="U23" s="49"/>
       <c r="V23" s="5"/>
       <c r="W23" s="5"/>
-      <c r="X23" s="77"/>
-      <c r="Y23" s="25"/>
+      <c r="X23" s="46"/>
+      <c r="Y23" s="15"/>
     </row>
     <row r="24" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="24"/>
-      <c r="C24" s="21"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="11"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="77"/>
-      <c r="J24" s="78"/>
-      <c r="K24" s="80"/>
-      <c r="L24" s="81"/>
-      <c r="M24" s="21"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="11"/>
       <c r="N24" s="5"/>
-      <c r="O24" s="77"/>
-      <c r="P24" s="78"/>
-      <c r="Q24" s="79"/>
-      <c r="R24" s="21"/>
+      <c r="O24" s="46"/>
+      <c r="P24" s="47"/>
+      <c r="Q24" s="48"/>
+      <c r="R24" s="11"/>
       <c r="S24" s="5"/>
       <c r="T24" s="5"/>
-      <c r="U24" s="80"/>
+      <c r="U24" s="49"/>
       <c r="V24" s="5"/>
       <c r="W24" s="5"/>
-      <c r="X24" s="77"/>
-      <c r="Y24" s="25"/>
+      <c r="X24" s="46"/>
+      <c r="Y24" s="15"/>
     </row>
     <row r="25" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="21"/>
+      <c r="C25" s="11"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="77"/>
-      <c r="J25" s="78"/>
-      <c r="K25" s="80"/>
-      <c r="L25" s="81"/>
-      <c r="M25" s="21"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="11"/>
       <c r="N25" s="5"/>
-      <c r="O25" s="77"/>
-      <c r="P25" s="78"/>
-      <c r="Q25" s="79"/>
-      <c r="R25" s="21"/>
+      <c r="O25" s="46"/>
+      <c r="P25" s="47"/>
+      <c r="Q25" s="48"/>
+      <c r="R25" s="11"/>
       <c r="S25" s="5"/>
       <c r="T25" s="5"/>
       <c r="U25" s="5"/>
       <c r="V25" s="5"/>
       <c r="W25" s="5"/>
-      <c r="X25" s="77"/>
-      <c r="Y25" s="25"/>
+      <c r="X25" s="46"/>
+      <c r="Y25" s="15"/>
     </row>
     <row r="26" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="92" t="s">
+      <c r="B26" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="21"/>
+      <c r="C26" s="11"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="8" t="s">
-        <v>2</v>
-      </c>
+      <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
-      <c r="I26" s="83"/>
-      <c r="J26" s="85"/>
-      <c r="K26" s="86"/>
-      <c r="L26" s="87"/>
-      <c r="M26" s="76"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="45"/>
       <c r="N26" s="8"/>
-      <c r="O26" s="83"/>
-      <c r="P26" s="85"/>
-      <c r="Q26" s="88"/>
-      <c r="R26" s="76"/>
+      <c r="O26" s="52"/>
+      <c r="P26" s="54"/>
+      <c r="Q26" s="57"/>
+      <c r="R26" s="45"/>
       <c r="S26" s="8"/>
       <c r="T26" s="8"/>
       <c r="U26" s="8"/>
       <c r="V26" s="5"/>
       <c r="W26" s="5"/>
-      <c r="X26" s="77"/>
-      <c r="Y26" s="25"/>
+      <c r="X26" s="46"/>
+      <c r="Y26" s="15"/>
     </row>
     <row r="27" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="92" t="s">
+      <c r="B27" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="21"/>
+      <c r="C27" s="11"/>
       <c r="D27" s="5"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="8" t="s">
-        <v>2</v>
-      </c>
+      <c r="G27" s="8"/>
       <c r="H27" s="8"/>
-      <c r="I27" s="83"/>
-      <c r="J27" s="85"/>
-      <c r="K27" s="86"/>
-      <c r="L27" s="87"/>
-      <c r="M27" s="76"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="45"/>
       <c r="N27" s="8"/>
-      <c r="O27" s="83"/>
-      <c r="P27" s="85"/>
-      <c r="Q27" s="88"/>
-      <c r="R27" s="76"/>
+      <c r="O27" s="52"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="57"/>
+      <c r="R27" s="45"/>
       <c r="S27" s="8"/>
       <c r="T27" s="8"/>
       <c r="U27" s="8"/>
       <c r="V27" s="5"/>
       <c r="W27" s="5"/>
-      <c r="X27" s="77"/>
-      <c r="Y27" s="25"/>
+      <c r="X27" s="46"/>
+      <c r="Y27" s="15"/>
     </row>
     <row r="28" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="92" t="s">
+      <c r="B28" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="21"/>
+      <c r="C28" s="11"/>
       <c r="D28" s="5"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
-      <c r="I28" s="83"/>
-      <c r="J28" s="85" t="s">
-        <v>2</v>
-      </c>
-      <c r="K28" s="86"/>
-      <c r="L28" s="87"/>
-      <c r="M28" s="76"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="54"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="45"/>
       <c r="N28" s="8"/>
-      <c r="O28" s="83"/>
-      <c r="P28" s="85"/>
-      <c r="Q28" s="88"/>
-      <c r="R28" s="76"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="54"/>
+      <c r="Q28" s="57"/>
+      <c r="R28" s="45"/>
       <c r="S28" s="8"/>
       <c r="T28" s="8"/>
       <c r="U28" s="8"/>
       <c r="V28" s="5"/>
       <c r="W28" s="5"/>
-      <c r="X28" s="77"/>
-      <c r="Y28" s="25"/>
+      <c r="X28" s="46"/>
+      <c r="Y28" s="15"/>
     </row>
     <row r="29" spans="2:25" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B29" s="93" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="21"/>
+      <c r="B29" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="11"/>
       <c r="D29" s="5"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
-      <c r="I29" s="83"/>
-      <c r="J29" s="85"/>
-      <c r="K29" s="86"/>
-      <c r="L29" s="87"/>
-      <c r="M29" s="76" t="s">
-        <v>50</v>
-      </c>
+      <c r="I29" s="52"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="56"/>
+      <c r="M29" s="45"/>
       <c r="N29" s="8"/>
-      <c r="O29" s="83"/>
-      <c r="P29" s="85"/>
-      <c r="Q29" s="88"/>
-      <c r="R29" s="76"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="54"/>
+      <c r="Q29" s="57"/>
+      <c r="R29" s="45"/>
       <c r="S29" s="8"/>
       <c r="T29" s="8"/>
       <c r="U29" s="8"/>
       <c r="V29" s="5"/>
       <c r="W29" s="5"/>
-      <c r="X29" s="77"/>
-      <c r="Y29" s="25"/>
+      <c r="X29" s="46"/>
+      <c r="Y29" s="15"/>
     </row>
     <row r="30" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="92" t="s">
+      <c r="B30" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="21"/>
+      <c r="C30" s="11"/>
       <c r="D30" s="5"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
-      <c r="I30" s="83"/>
-      <c r="J30" s="85"/>
-      <c r="K30" s="86"/>
-      <c r="L30" s="87"/>
-      <c r="M30" s="76"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="56"/>
+      <c r="M30" s="45"/>
       <c r="N30" s="8"/>
-      <c r="O30" s="83" t="s">
-        <v>2</v>
-      </c>
-      <c r="P30" s="85"/>
-      <c r="Q30" s="88"/>
-      <c r="R30" s="76"/>
+      <c r="O30" s="52"/>
+      <c r="P30" s="54"/>
+      <c r="Q30" s="57"/>
+      <c r="R30" s="45"/>
       <c r="S30" s="8"/>
       <c r="T30" s="8"/>
       <c r="U30" s="8"/>
       <c r="V30" s="5"/>
       <c r="W30" s="5"/>
-      <c r="X30" s="77"/>
-      <c r="Y30" s="25"/>
+      <c r="X30" s="46"/>
+      <c r="Y30" s="15"/>
     </row>
     <row r="31" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="92" t="s">
+      <c r="B31" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="21"/>
+      <c r="C31" s="11"/>
       <c r="D31" s="5"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
-      <c r="I31" s="83"/>
-      <c r="J31" s="85"/>
-      <c r="K31" s="86"/>
-      <c r="L31" s="87"/>
-      <c r="M31" s="76"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="56"/>
+      <c r="M31" s="45"/>
       <c r="N31" s="8"/>
-      <c r="O31" s="83"/>
-      <c r="P31" s="85"/>
-      <c r="Q31" s="88"/>
-      <c r="R31" s="76" t="s">
-        <v>2</v>
-      </c>
+      <c r="O31" s="52"/>
+      <c r="P31" s="54"/>
+      <c r="Q31" s="57"/>
+      <c r="R31" s="45"/>
       <c r="S31" s="8"/>
       <c r="T31" s="8"/>
       <c r="U31" s="8"/>
       <c r="V31" s="5"/>
       <c r="W31" s="5"/>
-      <c r="X31" s="77"/>
-      <c r="Y31" s="25"/>
+      <c r="X31" s="46"/>
+      <c r="Y31" s="15"/>
     </row>
     <row r="32" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="92" t="s">
+      <c r="B32" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="21"/>
+      <c r="C32" s="11"/>
       <c r="D32" s="5"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
-      <c r="I32" s="83"/>
-      <c r="J32" s="85"/>
-      <c r="K32" s="86"/>
-      <c r="L32" s="87"/>
-      <c r="M32" s="76"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="54"/>
+      <c r="K32" s="55"/>
+      <c r="L32" s="56"/>
+      <c r="M32" s="45"/>
       <c r="N32" s="8"/>
-      <c r="O32" s="83"/>
-      <c r="P32" s="85"/>
-      <c r="Q32" s="88"/>
-      <c r="R32" s="76"/>
+      <c r="O32" s="52"/>
+      <c r="P32" s="54"/>
+      <c r="Q32" s="57"/>
+      <c r="R32" s="45"/>
       <c r="S32" s="8"/>
       <c r="T32" s="8"/>
-      <c r="U32" s="8" t="s">
-        <v>2</v>
-      </c>
+      <c r="U32" s="8"/>
       <c r="V32" s="5"/>
       <c r="W32" s="5"/>
-      <c r="X32" s="77"/>
-      <c r="Y32" s="25"/>
+      <c r="X32" s="46"/>
+      <c r="Y32" s="15"/>
     </row>
     <row r="33" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="24"/>
-      <c r="C33" s="22"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="12"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="54"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="39"/>
       <c r="K33" s="4"/>
-      <c r="L33" s="56"/>
-      <c r="M33" s="22"/>
+      <c r="L33" s="41"/>
+      <c r="M33" s="12"/>
       <c r="N33" s="6"/>
-      <c r="O33" s="43"/>
-      <c r="P33" s="54"/>
-      <c r="Q33" s="55"/>
-      <c r="R33" s="22"/>
+      <c r="O33" s="33"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="12"/>
       <c r="S33" s="6"/>
       <c r="T33" s="6"/>
       <c r="U33" s="4"/>
       <c r="V33" s="6"/>
       <c r="W33" s="6"/>
-      <c r="X33" s="43"/>
-      <c r="Y33" s="24"/>
+      <c r="X33" s="33"/>
+      <c r="Y33" s="14"/>
     </row>
     <row r="34" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="22"/>
+      <c r="C34" s="12"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="7"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="54"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="39"/>
       <c r="K34" s="4"/>
-      <c r="L34" s="56"/>
-      <c r="M34" s="22"/>
+      <c r="L34" s="41"/>
+      <c r="M34" s="12"/>
       <c r="N34" s="6"/>
-      <c r="O34" s="43"/>
-      <c r="P34" s="54"/>
-      <c r="Q34" s="55"/>
-      <c r="R34" s="22"/>
+      <c r="O34" s="33"/>
+      <c r="P34" s="39"/>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="12"/>
       <c r="S34" s="6"/>
       <c r="T34" s="6"/>
       <c r="U34" s="6"/>
       <c r="V34" s="6"/>
       <c r="W34" s="6"/>
-      <c r="X34" s="43"/>
-      <c r="Y34" s="24"/>
+      <c r="X34" s="33"/>
+      <c r="Y34" s="14"/>
     </row>
     <row r="35" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B35" s="28" t="s">
+      <c r="B35" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C35" s="20"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
       <c r="H35" s="7"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="54"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="56"/>
-      <c r="M35" s="22"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="43"/>
-      <c r="P35" s="54"/>
-      <c r="Q35" s="55"/>
-      <c r="R35" s="22"/>
-      <c r="S35" s="6"/>
-      <c r="T35" s="6"/>
-      <c r="U35" s="6"/>
-      <c r="V35" s="6"/>
-      <c r="W35" s="6"/>
-      <c r="X35" s="43"/>
-      <c r="Y35" s="24"/>
+      <c r="I35" s="68"/>
+      <c r="J35" s="70"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="69"/>
+      <c r="M35" s="65"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="68"/>
+      <c r="P35" s="70"/>
+      <c r="Q35" s="64"/>
+      <c r="R35" s="65"/>
+      <c r="S35" s="7"/>
+      <c r="T35" s="7"/>
+      <c r="U35" s="7"/>
+      <c r="V35" s="7"/>
+      <c r="W35" s="7"/>
+      <c r="X35" s="68"/>
+      <c r="Y35" s="14"/>
     </row>
     <row r="36" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B36" s="26" t="s">
+      <c r="B36" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C36" s="20"/>
-      <c r="D36" s="4"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="9"/>
       <c r="E36" s="9"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
       <c r="H36" s="7"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="54"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="113"/>
-      <c r="M36" s="96"/>
+      <c r="I36" s="68"/>
+      <c r="J36" s="70"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="69"/>
+      <c r="M36" s="65"/>
       <c r="N36" s="7"/>
-      <c r="O36" s="103"/>
-      <c r="P36" s="114"/>
-      <c r="Q36" s="95"/>
-      <c r="R36" s="96"/>
+      <c r="O36" s="68"/>
+      <c r="P36" s="70"/>
+      <c r="Q36" s="64"/>
+      <c r="R36" s="65"/>
       <c r="S36" s="7"/>
       <c r="T36" s="7"/>
       <c r="U36" s="7"/>
       <c r="V36" s="7"/>
-      <c r="W36" s="6"/>
-      <c r="X36" s="43"/>
-      <c r="Y36" s="24"/>
+      <c r="W36" s="7"/>
+      <c r="X36" s="68"/>
+      <c r="Y36" s="14"/>
     </row>
     <row r="37" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="20"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
       <c r="H37" s="7"/>
-      <c r="I37" s="103"/>
-      <c r="J37" s="114"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="113"/>
-      <c r="M37" s="98"/>
+      <c r="I37" s="68"/>
+      <c r="J37" s="70"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="69"/>
+      <c r="M37" s="66"/>
       <c r="N37" s="7"/>
-      <c r="O37" s="103"/>
-      <c r="P37" s="114"/>
-      <c r="Q37" s="95"/>
-      <c r="R37" s="96"/>
+      <c r="O37" s="68"/>
+      <c r="P37" s="70"/>
+      <c r="Q37" s="64"/>
+      <c r="R37" s="65"/>
       <c r="S37" s="7"/>
       <c r="T37" s="7"/>
       <c r="U37" s="7"/>
       <c r="V37" s="7"/>
-      <c r="W37" s="6"/>
-      <c r="X37" s="43"/>
-      <c r="Y37" s="24"/>
+      <c r="W37" s="7"/>
+      <c r="X37" s="68"/>
+      <c r="Y37" s="14"/>
     </row>
     <row r="38" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B38" s="26" t="s">
+      <c r="B38" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="20"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="63"/>
-      <c r="J38" s="104"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="68"/>
+      <c r="J38" s="70"/>
       <c r="K38" s="9"/>
-      <c r="L38" s="115"/>
+      <c r="L38" s="69"/>
       <c r="M38" s="65"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="63"/>
-      <c r="P38" s="67"/>
-      <c r="Q38" s="68"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="68"/>
+      <c r="P38" s="63"/>
+      <c r="Q38" s="64"/>
       <c r="R38" s="65"/>
-      <c r="S38" s="13"/>
+      <c r="S38" s="9"/>
       <c r="T38" s="7"/>
       <c r="U38" s="7"/>
       <c r="V38" s="7"/>
-      <c r="W38" s="6"/>
-      <c r="X38" s="43"/>
-      <c r="Y38" s="24"/>
+      <c r="W38" s="7"/>
+      <c r="X38" s="68"/>
+      <c r="Y38" s="14"/>
     </row>
     <row r="39" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B39" s="26" t="s">
+      <c r="B39" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="20"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="54"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="113"/>
-      <c r="M39" s="96"/>
+      <c r="I39" s="68"/>
+      <c r="J39" s="70"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="69"/>
+      <c r="M39" s="65"/>
       <c r="N39" s="7"/>
-      <c r="O39" s="103"/>
-      <c r="P39" s="67"/>
-      <c r="Q39" s="68"/>
+      <c r="O39" s="68"/>
+      <c r="P39" s="63"/>
+      <c r="Q39" s="64"/>
       <c r="R39" s="65"/>
       <c r="S39" s="7"/>
       <c r="T39" s="7"/>
       <c r="U39" s="7"/>
       <c r="V39" s="7"/>
-      <c r="W39" s="6"/>
-      <c r="X39" s="43"/>
-      <c r="Y39" s="24"/>
+      <c r="W39" s="7"/>
+      <c r="X39" s="68"/>
+      <c r="Y39" s="14"/>
     </row>
     <row r="40" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="26" t="s">
+      <c r="B40" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="63"/>
-      <c r="J40" s="104"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="113"/>
-      <c r="M40" s="98"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="68"/>
+      <c r="J40" s="70"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="69"/>
+      <c r="M40" s="66"/>
       <c r="N40" s="7"/>
-      <c r="O40" s="103"/>
-      <c r="P40" s="114"/>
-      <c r="Q40" s="95"/>
-      <c r="R40" s="96"/>
+      <c r="O40" s="68"/>
+      <c r="P40" s="70"/>
+      <c r="Q40" s="64"/>
+      <c r="R40" s="65"/>
       <c r="S40" s="7"/>
       <c r="T40" s="7"/>
       <c r="U40" s="7"/>
       <c r="V40" s="7"/>
-      <c r="W40" s="6"/>
-      <c r="X40" s="43"/>
-      <c r="Y40" s="24"/>
+      <c r="W40" s="7"/>
+      <c r="X40" s="68"/>
+      <c r="Y40" s="14"/>
     </row>
     <row r="41" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B41" s="26" t="s">
+      <c r="B41" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="20"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="63"/>
-      <c r="J41" s="104"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="113"/>
-      <c r="M41" s="98"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="68"/>
+      <c r="J41" s="70"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="69"/>
+      <c r="M41" s="66"/>
       <c r="N41" s="7"/>
-      <c r="O41" s="103"/>
-      <c r="P41" s="114"/>
-      <c r="Q41" s="95"/>
-      <c r="R41" s="96"/>
+      <c r="O41" s="68"/>
+      <c r="P41" s="70"/>
+      <c r="Q41" s="64"/>
+      <c r="R41" s="65"/>
       <c r="S41" s="7"/>
       <c r="T41" s="7"/>
       <c r="U41" s="7"/>
       <c r="V41" s="7"/>
-      <c r="W41" s="6"/>
-      <c r="X41" s="43"/>
-      <c r="Y41" s="24"/>
+      <c r="W41" s="7"/>
+      <c r="X41" s="68"/>
+      <c r="Y41" s="14"/>
     </row>
     <row r="42" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B42" s="26" t="s">
+      <c r="B42" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C42" s="20"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="63"/>
-      <c r="J42" s="104"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="113"/>
-      <c r="M42" s="98"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="68"/>
+      <c r="J42" s="70"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="69"/>
+      <c r="M42" s="66"/>
       <c r="N42" s="7"/>
-      <c r="O42" s="103"/>
-      <c r="P42" s="114"/>
-      <c r="Q42" s="95"/>
-      <c r="R42" s="96"/>
+      <c r="O42" s="68"/>
+      <c r="P42" s="70"/>
+      <c r="Q42" s="64"/>
+      <c r="R42" s="65"/>
       <c r="S42" s="7"/>
       <c r="T42" s="7"/>
       <c r="U42" s="7"/>
       <c r="V42" s="7"/>
-      <c r="W42" s="6"/>
-      <c r="X42" s="43"/>
-      <c r="Y42" s="24"/>
+      <c r="W42" s="7"/>
+      <c r="X42" s="68"/>
+      <c r="Y42" s="14"/>
     </row>
     <row r="43" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B43" s="26" t="s">
+      <c r="B43" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C43" s="20"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
       <c r="H43" s="7"/>
-      <c r="I43" s="43"/>
-      <c r="J43" s="54"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="113"/>
-      <c r="M43" s="48"/>
+      <c r="I43" s="68"/>
+      <c r="J43" s="70"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="69"/>
+      <c r="M43" s="66"/>
       <c r="N43" s="9"/>
-      <c r="O43" s="116"/>
-      <c r="P43" s="94"/>
-      <c r="Q43" s="113"/>
-      <c r="R43" s="98"/>
-      <c r="S43" s="13"/>
+      <c r="O43" s="67"/>
+      <c r="P43" s="63"/>
+      <c r="Q43" s="69"/>
+      <c r="R43" s="66"/>
+      <c r="S43" s="9"/>
       <c r="T43" s="7"/>
       <c r="U43" s="7"/>
       <c r="V43" s="7"/>
-      <c r="W43" s="6"/>
-      <c r="X43" s="43"/>
-      <c r="Y43" s="24"/>
+      <c r="W43" s="7"/>
+      <c r="X43" s="68"/>
+      <c r="Y43" s="14"/>
     </row>
     <row r="44" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B44" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="C44" s="20"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
+      <c r="B44" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="10"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
       <c r="H44" s="7"/>
-      <c r="I44" s="43"/>
-      <c r="J44" s="54"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="113"/>
-      <c r="M44" s="98"/>
-      <c r="N44" s="13"/>
-      <c r="O44" s="99"/>
-      <c r="P44" s="94"/>
-      <c r="Q44" s="113"/>
-      <c r="R44" s="98"/>
-      <c r="S44" s="13"/>
+      <c r="I44" s="68"/>
+      <c r="J44" s="70"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="69"/>
+      <c r="M44" s="66"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="67"/>
+      <c r="P44" s="63"/>
+      <c r="Q44" s="69"/>
+      <c r="R44" s="66"/>
+      <c r="S44" s="9"/>
       <c r="T44" s="7"/>
       <c r="U44" s="7"/>
       <c r="V44" s="7"/>
-      <c r="W44" s="6"/>
-      <c r="X44" s="43"/>
-      <c r="Y44" s="24"/>
+      <c r="W44" s="7"/>
+      <c r="X44" s="68"/>
+      <c r="Y44" s="14"/>
     </row>
     <row r="45" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B45" s="26"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
       <c r="H45" s="7"/>
-      <c r="I45" s="43"/>
-      <c r="J45" s="54"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="113"/>
-      <c r="M45" s="96"/>
+      <c r="I45" s="68"/>
+      <c r="J45" s="70"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="69"/>
+      <c r="M45" s="65"/>
       <c r="N45" s="7"/>
-      <c r="O45" s="103"/>
-      <c r="P45" s="114"/>
-      <c r="Q45" s="95"/>
-      <c r="R45" s="96"/>
+      <c r="O45" s="68"/>
+      <c r="P45" s="70"/>
+      <c r="Q45" s="64"/>
+      <c r="R45" s="65"/>
       <c r="S45" s="7"/>
-      <c r="T45" s="13"/>
-      <c r="U45" s="13"/>
-      <c r="V45" s="13"/>
-      <c r="W45" s="6"/>
-      <c r="X45" s="43"/>
-      <c r="Y45" s="24"/>
+      <c r="T45" s="9"/>
+      <c r="U45" s="9"/>
+      <c r="V45" s="9"/>
+      <c r="W45" s="7"/>
+      <c r="X45" s="68"/>
+      <c r="Y45" s="14"/>
     </row>
     <row r="46" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B46" s="28" t="s">
+      <c r="B46" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C46" s="20"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
       <c r="H46" s="7"/>
-      <c r="I46" s="43"/>
-      <c r="J46" s="54"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="113"/>
-      <c r="M46" s="96"/>
+      <c r="I46" s="68"/>
+      <c r="J46" s="70"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="69"/>
+      <c r="M46" s="65"/>
       <c r="N46" s="7"/>
-      <c r="O46" s="103"/>
-      <c r="P46" s="114"/>
-      <c r="Q46" s="95"/>
-      <c r="R46" s="96"/>
+      <c r="O46" s="68"/>
+      <c r="P46" s="70"/>
+      <c r="Q46" s="64"/>
+      <c r="R46" s="65"/>
       <c r="S46" s="7"/>
-      <c r="T46" s="13"/>
-      <c r="U46" s="13"/>
-      <c r="V46" s="13"/>
-      <c r="W46" s="6"/>
-      <c r="X46" s="43"/>
-      <c r="Y46" s="24"/>
+      <c r="T46" s="9"/>
+      <c r="U46" s="9"/>
+      <c r="V46" s="9"/>
+      <c r="W46" s="7"/>
+      <c r="X46" s="68"/>
+      <c r="Y46" s="14"/>
     </row>
     <row r="47" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="26" t="s">
+      <c r="B47" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="20"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
       <c r="H47" s="7"/>
-      <c r="I47" s="43"/>
-      <c r="J47" s="54"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="56"/>
-      <c r="M47" s="22"/>
-      <c r="N47" s="6"/>
-      <c r="O47" s="19"/>
-      <c r="P47" s="57"/>
-      <c r="Q47" s="56"/>
-      <c r="R47" s="22"/>
-      <c r="S47" s="6"/>
-      <c r="T47" s="4"/>
-      <c r="U47" s="4"/>
-      <c r="V47" s="4"/>
-      <c r="W47" s="6"/>
-      <c r="X47" s="43"/>
-      <c r="Y47" s="24"/>
+      <c r="I47" s="68"/>
+      <c r="J47" s="70"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="69"/>
+      <c r="M47" s="65"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="67"/>
+      <c r="P47" s="63"/>
+      <c r="Q47" s="69"/>
+      <c r="R47" s="65"/>
+      <c r="S47" s="7"/>
+      <c r="T47" s="9"/>
+      <c r="U47" s="9"/>
+      <c r="V47" s="9"/>
+      <c r="W47" s="7"/>
+      <c r="X47" s="68"/>
+      <c r="Y47" s="14"/>
     </row>
     <row r="48" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B48" s="26" t="s">
+      <c r="B48" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="20"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="57"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="56"/>
-      <c r="M48" s="22"/>
-      <c r="N48" s="6"/>
-      <c r="O48" s="43"/>
-      <c r="P48" s="54"/>
-      <c r="Q48" s="55"/>
-      <c r="R48" s="22"/>
-      <c r="S48" s="6"/>
-      <c r="T48" s="4"/>
-      <c r="U48" s="4"/>
-      <c r="V48" s="4"/>
-      <c r="W48" s="6"/>
-      <c r="X48" s="43"/>
-      <c r="Y48" s="24"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="67"/>
+      <c r="J48" s="63"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="69"/>
+      <c r="M48" s="65"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="68"/>
+      <c r="P48" s="70"/>
+      <c r="Q48" s="64"/>
+      <c r="R48" s="65"/>
+      <c r="S48" s="7"/>
+      <c r="T48" s="9"/>
+      <c r="U48" s="9"/>
+      <c r="V48" s="9"/>
+      <c r="W48" s="7"/>
+      <c r="X48" s="68"/>
+      <c r="Y48" s="14"/>
     </row>
     <row r="49" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B49" s="26" t="s">
+      <c r="B49" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C49" s="20"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="57"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="56"/>
-      <c r="M49" s="22"/>
-      <c r="N49" s="6"/>
-      <c r="O49" s="43"/>
-      <c r="P49" s="54"/>
-      <c r="Q49" s="55"/>
-      <c r="R49" s="22"/>
-      <c r="S49" s="6"/>
-      <c r="T49" s="4"/>
-      <c r="U49" s="4"/>
-      <c r="V49" s="4"/>
-      <c r="W49" s="6"/>
-      <c r="X49" s="43"/>
-      <c r="Y49" s="24"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="67"/>
+      <c r="J49" s="63"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="69"/>
+      <c r="M49" s="65"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="68"/>
+      <c r="P49" s="70"/>
+      <c r="Q49" s="64"/>
+      <c r="R49" s="65"/>
+      <c r="S49" s="7"/>
+      <c r="T49" s="9"/>
+      <c r="U49" s="9"/>
+      <c r="V49" s="9"/>
+      <c r="W49" s="7"/>
+      <c r="X49" s="68"/>
+      <c r="Y49" s="14"/>
     </row>
     <row r="50" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B50" s="26" t="s">
+      <c r="B50" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C50" s="20"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="57"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="56"/>
-      <c r="M50" s="22"/>
-      <c r="N50" s="6"/>
-      <c r="O50" s="43"/>
-      <c r="P50" s="54"/>
-      <c r="Q50" s="55"/>
-      <c r="R50" s="22"/>
-      <c r="S50" s="6"/>
-      <c r="T50" s="13"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="67"/>
+      <c r="J50" s="63"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="69"/>
+      <c r="M50" s="65"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="68"/>
+      <c r="P50" s="70"/>
+      <c r="Q50" s="64"/>
+      <c r="R50" s="65"/>
+      <c r="S50" s="7"/>
+      <c r="T50" s="9"/>
       <c r="U50" s="7"/>
       <c r="V50" s="7"/>
-      <c r="W50" s="6"/>
-      <c r="X50" s="43"/>
-      <c r="Y50" s="24"/>
+      <c r="W50" s="7"/>
+      <c r="X50" s="68"/>
+      <c r="Y50" s="14"/>
     </row>
     <row r="51" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B51" s="26" t="s">
+      <c r="B51" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C51" s="20"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="44"/>
-      <c r="J51" s="58"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="56"/>
-      <c r="M51" s="22"/>
-      <c r="N51" s="6"/>
-      <c r="O51" s="43"/>
-      <c r="P51" s="54"/>
-      <c r="Q51" s="55"/>
-      <c r="R51" s="22"/>
-      <c r="S51" s="6"/>
-      <c r="T51" s="13"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="68"/>
+      <c r="J51" s="70"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="69"/>
+      <c r="M51" s="65"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="68"/>
+      <c r="P51" s="70"/>
+      <c r="Q51" s="64"/>
+      <c r="R51" s="65"/>
+      <c r="S51" s="7"/>
+      <c r="T51" s="9"/>
       <c r="U51" s="7"/>
       <c r="V51" s="7"/>
-      <c r="W51" s="6"/>
-      <c r="X51" s="43"/>
-      <c r="Y51" s="24"/>
+      <c r="W51" s="7"/>
+      <c r="X51" s="68"/>
+      <c r="Y51" s="14"/>
     </row>
     <row r="52" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B52" s="26" t="s">
+      <c r="B52" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C52" s="20"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="44"/>
-      <c r="J52" s="58"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="56"/>
-      <c r="M52" s="22"/>
-      <c r="N52" s="6"/>
-      <c r="O52" s="43"/>
-      <c r="P52" s="54"/>
-      <c r="Q52" s="55"/>
-      <c r="R52" s="22"/>
-      <c r="S52" s="6"/>
-      <c r="T52" s="4"/>
-      <c r="U52" s="4"/>
-      <c r="V52" s="4"/>
-      <c r="W52" s="6"/>
-      <c r="X52" s="43"/>
-      <c r="Y52" s="24"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="68"/>
+      <c r="J52" s="70"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="69"/>
+      <c r="M52" s="65"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="68"/>
+      <c r="P52" s="70"/>
+      <c r="Q52" s="64"/>
+      <c r="R52" s="65"/>
+      <c r="S52" s="7"/>
+      <c r="T52" s="9"/>
+      <c r="U52" s="9"/>
+      <c r="V52" s="9"/>
+      <c r="W52" s="7"/>
+      <c r="X52" s="68"/>
+      <c r="Y52" s="14"/>
     </row>
     <row r="53" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B53" s="27"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
       <c r="H53" s="7"/>
-      <c r="I53" s="43"/>
-      <c r="J53" s="54"/>
-      <c r="K53" s="4"/>
-      <c r="L53" s="56"/>
-      <c r="M53" s="22"/>
-      <c r="N53" s="6"/>
-      <c r="O53" s="43"/>
-      <c r="P53" s="54"/>
-      <c r="Q53" s="55"/>
-      <c r="R53" s="22"/>
-      <c r="S53" s="6"/>
-      <c r="T53" s="4"/>
-      <c r="U53" s="4"/>
-      <c r="V53" s="4"/>
-      <c r="W53" s="6"/>
-      <c r="X53" s="43"/>
-      <c r="Y53" s="24"/>
+      <c r="I53" s="68"/>
+      <c r="J53" s="70"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="69"/>
+      <c r="M53" s="65"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="68"/>
+      <c r="P53" s="70"/>
+      <c r="Q53" s="64"/>
+      <c r="R53" s="65"/>
+      <c r="S53" s="7"/>
+      <c r="T53" s="9"/>
+      <c r="U53" s="9"/>
+      <c r="V53" s="9"/>
+      <c r="W53" s="7"/>
+      <c r="X53" s="68"/>
+      <c r="Y53" s="14"/>
     </row>
     <row r="54" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B54" s="28" t="s">
+      <c r="B54" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C54" s="10"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="68"/>
+      <c r="J54" s="70"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="69"/>
+      <c r="M54" s="65"/>
+      <c r="N54" s="7"/>
+      <c r="O54" s="68"/>
+      <c r="P54" s="70"/>
+      <c r="Q54" s="64"/>
+      <c r="R54" s="65"/>
+      <c r="S54" s="7"/>
+      <c r="T54" s="9"/>
+      <c r="U54" s="9"/>
+      <c r="V54" s="9"/>
+      <c r="W54" s="7"/>
+      <c r="X54" s="68"/>
+      <c r="Y54" s="14"/>
+    </row>
+    <row r="55" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B55" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C55" s="10"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="68"/>
+      <c r="J55" s="70"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="69"/>
+      <c r="M55" s="65"/>
+      <c r="N55" s="7"/>
+      <c r="O55" s="68"/>
+      <c r="P55" s="70"/>
+      <c r="Q55" s="64"/>
+      <c r="R55" s="65"/>
+      <c r="S55" s="7"/>
+      <c r="T55" s="9"/>
+      <c r="U55" s="9"/>
+      <c r="V55" s="9"/>
+      <c r="W55" s="7"/>
+      <c r="X55" s="68"/>
+      <c r="Y55" s="14"/>
+    </row>
+    <row r="56" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B56" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C54" s="20"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="43"/>
-      <c r="J54" s="54"/>
-      <c r="K54" s="4"/>
-      <c r="L54" s="56"/>
-      <c r="M54" s="22"/>
-      <c r="N54" s="6"/>
-      <c r="O54" s="43"/>
-      <c r="P54" s="54"/>
-      <c r="Q54" s="55"/>
-      <c r="R54" s="22"/>
-      <c r="S54" s="6"/>
-      <c r="T54" s="4"/>
-      <c r="U54" s="4"/>
-      <c r="V54" s="4"/>
-      <c r="W54" s="6"/>
-      <c r="X54" s="43"/>
-      <c r="Y54" s="24"/>
-    </row>
-    <row r="55" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B55" s="26" t="s">
+      <c r="C56" s="10"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="68"/>
+      <c r="J56" s="70"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="69"/>
+      <c r="M56" s="65"/>
+      <c r="N56" s="7"/>
+      <c r="O56" s="68"/>
+      <c r="P56" s="70"/>
+      <c r="Q56" s="64"/>
+      <c r="R56" s="65"/>
+      <c r="S56" s="7"/>
+      <c r="T56" s="9"/>
+      <c r="U56" s="9"/>
+      <c r="V56" s="9"/>
+      <c r="W56" s="7"/>
+      <c r="X56" s="68"/>
+      <c r="Y56" s="14"/>
+    </row>
+    <row r="57" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B57" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C57" s="10"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="68"/>
+      <c r="J57" s="70"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="69"/>
+      <c r="M57" s="65"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="68"/>
+      <c r="P57" s="70"/>
+      <c r="Q57" s="64"/>
+      <c r="R57" s="65"/>
+      <c r="S57" s="7"/>
+      <c r="T57" s="9"/>
+      <c r="U57" s="9"/>
+      <c r="V57" s="9"/>
+      <c r="W57" s="7"/>
+      <c r="X57" s="68"/>
+      <c r="Y57" s="14"/>
+    </row>
+    <row r="58" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B58" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C58" s="10"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="67"/>
+      <c r="J58" s="63"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="69"/>
+      <c r="M58" s="66"/>
+      <c r="N58" s="7"/>
+      <c r="O58" s="68"/>
+      <c r="P58" s="70"/>
+      <c r="Q58" s="64"/>
+      <c r="R58" s="65"/>
+      <c r="S58" s="7"/>
+      <c r="T58" s="9"/>
+      <c r="U58" s="9"/>
+      <c r="V58" s="9"/>
+      <c r="W58" s="7"/>
+      <c r="X58" s="68"/>
+      <c r="Y58" s="14"/>
+    </row>
+    <row r="59" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B59" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C59" s="10"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="68"/>
+      <c r="J59" s="70"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="69"/>
+      <c r="M59" s="65"/>
+      <c r="N59" s="7"/>
+      <c r="O59" s="68"/>
+      <c r="P59" s="63"/>
+      <c r="Q59" s="69"/>
+      <c r="R59" s="66"/>
+      <c r="S59" s="9"/>
+      <c r="T59" s="7"/>
+      <c r="U59" s="7"/>
+      <c r="V59" s="7"/>
+      <c r="W59" s="7"/>
+      <c r="X59" s="68"/>
+      <c r="Y59" s="14"/>
+    </row>
+    <row r="60" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B60" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C60" s="10"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="67"/>
+      <c r="J60" s="63"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="69"/>
+      <c r="M60" s="66"/>
+      <c r="N60" s="9"/>
+      <c r="O60" s="67"/>
+      <c r="P60" s="63"/>
+      <c r="Q60" s="64"/>
+      <c r="R60" s="65"/>
+      <c r="S60" s="9"/>
+      <c r="T60" s="9"/>
+      <c r="U60" s="9"/>
+      <c r="V60" s="9"/>
+      <c r="W60" s="9"/>
+      <c r="X60" s="67"/>
+      <c r="Y60" s="17"/>
+    </row>
+    <row r="61" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B61" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C61" s="10"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="67"/>
+      <c r="J61" s="63"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="69"/>
+      <c r="M61" s="66"/>
+      <c r="N61" s="9"/>
+      <c r="O61" s="67"/>
+      <c r="P61" s="63"/>
+      <c r="Q61" s="64"/>
+      <c r="R61" s="65"/>
+      <c r="S61" s="9"/>
+      <c r="T61" s="9"/>
+      <c r="U61" s="9"/>
+      <c r="V61" s="9"/>
+      <c r="W61" s="9"/>
+      <c r="X61" s="67"/>
+      <c r="Y61" s="17"/>
+    </row>
+    <row r="62" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B62" s="17"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="67"/>
+      <c r="J62" s="63"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="69"/>
+      <c r="M62" s="66"/>
+      <c r="N62" s="9"/>
+      <c r="O62" s="67"/>
+      <c r="P62" s="63"/>
+      <c r="Q62" s="69"/>
+      <c r="R62" s="66"/>
+      <c r="S62" s="9"/>
+      <c r="T62" s="9"/>
+      <c r="U62" s="9"/>
+      <c r="V62" s="9"/>
+      <c r="W62" s="9"/>
+      <c r="X62" s="67"/>
+      <c r="Y62" s="17"/>
+    </row>
+    <row r="63" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B63" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" s="10"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="67"/>
+      <c r="J63" s="63"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="69"/>
+      <c r="M63" s="66"/>
+      <c r="N63" s="9"/>
+      <c r="O63" s="67"/>
+      <c r="P63" s="63"/>
+      <c r="Q63" s="69"/>
+      <c r="R63" s="66"/>
+      <c r="S63" s="9"/>
+      <c r="T63" s="9"/>
+      <c r="U63" s="9"/>
+      <c r="V63" s="9"/>
+      <c r="W63" s="9"/>
+      <c r="X63" s="67"/>
+      <c r="Y63" s="17"/>
+    </row>
+    <row r="64" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B64" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C55" s="20"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="43"/>
-      <c r="J55" s="54"/>
-      <c r="K55" s="4"/>
-      <c r="L55" s="56"/>
-      <c r="M55" s="22"/>
-      <c r="N55" s="6"/>
-      <c r="O55" s="43"/>
-      <c r="P55" s="54"/>
-      <c r="Q55" s="55"/>
-      <c r="R55" s="22"/>
-      <c r="S55" s="6"/>
-      <c r="T55" s="4"/>
-      <c r="U55" s="4"/>
-      <c r="V55" s="4"/>
-      <c r="W55" s="6"/>
-      <c r="X55" s="43"/>
-      <c r="Y55" s="24"/>
-    </row>
-    <row r="56" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B56" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="C56" s="20"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="43"/>
-      <c r="J56" s="54"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="56"/>
-      <c r="M56" s="22"/>
-      <c r="N56" s="6"/>
-      <c r="O56" s="43"/>
-      <c r="P56" s="54"/>
-      <c r="Q56" s="55"/>
-      <c r="R56" s="22"/>
-      <c r="S56" s="6"/>
-      <c r="T56" s="4"/>
-      <c r="U56" s="4"/>
-      <c r="V56" s="4"/>
-      <c r="W56" s="6"/>
-      <c r="X56" s="43"/>
-      <c r="Y56" s="24"/>
-    </row>
-    <row r="57" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B57" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="C57" s="20"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="14"/>
-      <c r="I57" s="45"/>
-      <c r="J57" s="59"/>
-      <c r="K57" s="4"/>
-      <c r="L57" s="56"/>
-      <c r="M57" s="22"/>
-      <c r="N57" s="6"/>
-      <c r="O57" s="43"/>
-      <c r="P57" s="54"/>
-      <c r="Q57" s="55"/>
-      <c r="R57" s="22"/>
-      <c r="S57" s="6"/>
-      <c r="T57" s="4"/>
-      <c r="U57" s="4"/>
-      <c r="V57" s="4"/>
-      <c r="W57" s="6"/>
-      <c r="X57" s="43"/>
-      <c r="Y57" s="24"/>
-    </row>
-    <row r="58" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B58" s="26" t="s">
+      <c r="C64" s="10"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="67"/>
+      <c r="J64" s="63"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="69"/>
+      <c r="M64" s="66"/>
+      <c r="N64" s="9"/>
+      <c r="O64" s="67"/>
+      <c r="P64" s="63"/>
+      <c r="Q64" s="69"/>
+      <c r="R64" s="66"/>
+      <c r="S64" s="9"/>
+      <c r="T64" s="9"/>
+      <c r="U64" s="9"/>
+      <c r="V64" s="9"/>
+      <c r="W64" s="9"/>
+      <c r="X64" s="67"/>
+      <c r="Y64" s="17"/>
+    </row>
+    <row r="65" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B65" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C65" s="10"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="67"/>
+      <c r="J65" s="63"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="69"/>
+      <c r="M65" s="66"/>
+      <c r="N65" s="9"/>
+      <c r="O65" s="67"/>
+      <c r="P65" s="63"/>
+      <c r="Q65" s="69"/>
+      <c r="R65" s="66"/>
+      <c r="S65" s="9"/>
+      <c r="T65" s="9"/>
+      <c r="U65" s="9"/>
+      <c r="V65" s="9"/>
+      <c r="W65" s="9"/>
+      <c r="X65" s="67"/>
+      <c r="Y65" s="17"/>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B66" s="17"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="67"/>
+      <c r="J66" s="63"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="69"/>
+      <c r="M66" s="66"/>
+      <c r="N66" s="9"/>
+      <c r="O66" s="67"/>
+      <c r="P66" s="63"/>
+      <c r="Q66" s="69"/>
+      <c r="R66" s="66"/>
+      <c r="S66" s="9"/>
+      <c r="T66" s="9"/>
+      <c r="U66" s="9"/>
+      <c r="V66" s="9"/>
+      <c r="W66" s="9"/>
+      <c r="X66" s="67"/>
+      <c r="Y66" s="17"/>
+    </row>
+    <row r="67" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B67" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="10"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="67"/>
+      <c r="J67" s="63"/>
+      <c r="K67" s="9"/>
+      <c r="L67" s="69"/>
+      <c r="M67" s="66"/>
+      <c r="N67" s="9"/>
+      <c r="O67" s="67"/>
+      <c r="P67" s="63"/>
+      <c r="Q67" s="69"/>
+      <c r="R67" s="66"/>
+      <c r="S67" s="9"/>
+      <c r="T67" s="9"/>
+      <c r="U67" s="9"/>
+      <c r="V67" s="9"/>
+      <c r="W67" s="9"/>
+      <c r="X67" s="67"/>
+      <c r="Y67" s="17"/>
+    </row>
+    <row r="68" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B68" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C68" s="10"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="67"/>
+      <c r="J68" s="63"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="69"/>
+      <c r="M68" s="66"/>
+      <c r="N68" s="9"/>
+      <c r="O68" s="67"/>
+      <c r="P68" s="63"/>
+      <c r="Q68" s="69"/>
+      <c r="R68" s="66"/>
+      <c r="S68" s="9"/>
+      <c r="T68" s="9"/>
+      <c r="U68" s="9"/>
+      <c r="V68" s="9"/>
+      <c r="W68" s="9"/>
+      <c r="X68" s="67"/>
+      <c r="Y68" s="17"/>
+    </row>
+    <row r="69" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B69" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C69" s="10"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="67"/>
+      <c r="J69" s="63"/>
+      <c r="K69" s="9"/>
+      <c r="L69" s="69"/>
+      <c r="M69" s="66"/>
+      <c r="N69" s="9"/>
+      <c r="O69" s="67"/>
+      <c r="P69" s="63"/>
+      <c r="Q69" s="69"/>
+      <c r="R69" s="66"/>
+      <c r="S69" s="9"/>
+      <c r="T69" s="9"/>
+      <c r="U69" s="9"/>
+      <c r="V69" s="9"/>
+      <c r="W69" s="9"/>
+      <c r="X69" s="67"/>
+      <c r="Y69" s="17"/>
+    </row>
+    <row r="70" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B70" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C70" s="10"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="67"/>
+      <c r="J70" s="63"/>
+      <c r="K70" s="9"/>
+      <c r="L70" s="69"/>
+      <c r="M70" s="66"/>
+      <c r="N70" s="9"/>
+      <c r="O70" s="67"/>
+      <c r="P70" s="63"/>
+      <c r="Q70" s="69"/>
+      <c r="R70" s="66"/>
+      <c r="S70" s="9"/>
+      <c r="T70" s="9"/>
+      <c r="U70" s="9"/>
+      <c r="V70" s="9"/>
+      <c r="W70" s="9"/>
+      <c r="X70" s="67"/>
+      <c r="Y70" s="17"/>
+    </row>
+    <row r="71" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B71" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C71" s="10"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="67"/>
+      <c r="J71" s="63"/>
+      <c r="K71" s="9"/>
+      <c r="L71" s="69"/>
+      <c r="M71" s="66"/>
+      <c r="N71" s="9"/>
+      <c r="O71" s="67"/>
+      <c r="P71" s="63"/>
+      <c r="Q71" s="69"/>
+      <c r="R71" s="66"/>
+      <c r="S71" s="9"/>
+      <c r="T71" s="9"/>
+      <c r="U71" s="9"/>
+      <c r="V71" s="9"/>
+      <c r="W71" s="9"/>
+      <c r="X71" s="67"/>
+      <c r="Y71" s="17"/>
+    </row>
+    <row r="72" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B72" s="16"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="67"/>
+      <c r="J72" s="63"/>
+      <c r="K72" s="9"/>
+      <c r="L72" s="69"/>
+      <c r="M72" s="66"/>
+      <c r="N72" s="9"/>
+      <c r="O72" s="67"/>
+      <c r="P72" s="63"/>
+      <c r="Q72" s="69"/>
+      <c r="R72" s="66"/>
+      <c r="S72" s="9"/>
+      <c r="T72" s="9"/>
+      <c r="U72" s="9"/>
+      <c r="V72" s="9"/>
+      <c r="W72" s="9"/>
+      <c r="X72" s="67"/>
+      <c r="Y72" s="17"/>
+    </row>
+    <row r="73" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B73" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C73" s="10"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="67"/>
+      <c r="J73" s="63"/>
+      <c r="K73" s="9"/>
+      <c r="L73" s="69"/>
+      <c r="M73" s="66"/>
+      <c r="N73" s="9"/>
+      <c r="O73" s="67"/>
+      <c r="P73" s="63"/>
+      <c r="Q73" s="69"/>
+      <c r="R73" s="66"/>
+      <c r="S73" s="9"/>
+      <c r="T73" s="9"/>
+      <c r="U73" s="9"/>
+      <c r="V73" s="9"/>
+      <c r="W73" s="9"/>
+      <c r="X73" s="67"/>
+      <c r="Y73" s="17"/>
+    </row>
+    <row r="74" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B74" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C74" s="10"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="67"/>
+      <c r="J74" s="63"/>
+      <c r="K74" s="9"/>
+      <c r="L74" s="69"/>
+      <c r="M74" s="66"/>
+      <c r="N74" s="9"/>
+      <c r="O74" s="67"/>
+      <c r="P74" s="63"/>
+      <c r="Q74" s="69"/>
+      <c r="R74" s="66"/>
+      <c r="S74" s="9"/>
+      <c r="T74" s="9"/>
+      <c r="U74" s="9"/>
+      <c r="V74" s="9"/>
+      <c r="W74" s="9"/>
+      <c r="X74" s="67"/>
+      <c r="Y74" s="17"/>
+    </row>
+    <row r="75" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B75" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C58" s="20"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="57"/>
-      <c r="K58" s="4"/>
-      <c r="L58" s="56"/>
-      <c r="M58" s="49"/>
-      <c r="N58" s="15"/>
-      <c r="O58" s="45"/>
-      <c r="P58" s="54"/>
-      <c r="Q58" s="55"/>
-      <c r="R58" s="22"/>
-      <c r="S58" s="6"/>
-      <c r="T58" s="4"/>
-      <c r="U58" s="4"/>
-      <c r="V58" s="4"/>
-      <c r="W58" s="6"/>
-      <c r="X58" s="43"/>
-      <c r="Y58" s="24"/>
-    </row>
-    <row r="59" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B59" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C59" s="20"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="43"/>
-      <c r="J59" s="54"/>
-      <c r="K59" s="4"/>
-      <c r="L59" s="56"/>
-      <c r="M59" s="22"/>
-      <c r="N59" s="6"/>
-      <c r="O59" s="43"/>
-      <c r="P59" s="57"/>
-      <c r="Q59" s="56"/>
-      <c r="R59" s="20"/>
-      <c r="S59" s="14"/>
-      <c r="T59" s="15"/>
-      <c r="U59" s="15"/>
-      <c r="V59" s="6"/>
-      <c r="W59" s="6"/>
-      <c r="X59" s="43"/>
-      <c r="Y59" s="24"/>
-    </row>
-    <row r="60" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B60" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="C60" s="20"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="57"/>
-      <c r="K60" s="4"/>
-      <c r="L60" s="56"/>
-      <c r="M60" s="20"/>
-      <c r="N60" s="4"/>
-      <c r="O60" s="19"/>
-      <c r="P60" s="69"/>
-      <c r="Q60" s="70"/>
-      <c r="R60" s="66"/>
-      <c r="S60" s="4"/>
-      <c r="T60" s="4"/>
-      <c r="U60" s="4"/>
-      <c r="V60" s="4"/>
-      <c r="W60" s="4"/>
-      <c r="X60" s="19"/>
-      <c r="Y60" s="27"/>
-    </row>
-    <row r="61" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B61" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="C61" s="20"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="57"/>
-      <c r="K61" s="4"/>
-      <c r="L61" s="56"/>
-      <c r="M61" s="49"/>
-      <c r="N61" s="14"/>
-      <c r="O61" s="97"/>
-      <c r="P61" s="94"/>
-      <c r="Q61" s="95"/>
-      <c r="R61" s="96"/>
-      <c r="S61" s="4"/>
-      <c r="T61" s="4"/>
-      <c r="U61" s="4"/>
-      <c r="V61" s="4"/>
-      <c r="W61" s="4"/>
-      <c r="X61" s="19"/>
-      <c r="Y61" s="27"/>
-    </row>
-    <row r="62" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B62" s="27"/>
-      <c r="C62" s="20"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="57"/>
-      <c r="K62" s="4"/>
-      <c r="L62" s="56"/>
-      <c r="M62" s="20"/>
-      <c r="N62" s="4"/>
-      <c r="O62" s="19"/>
-      <c r="P62" s="57"/>
-      <c r="Q62" s="56"/>
-      <c r="R62" s="20"/>
-      <c r="S62" s="4"/>
-      <c r="T62" s="4"/>
-      <c r="U62" s="4"/>
-      <c r="V62" s="4"/>
-      <c r="W62" s="4"/>
-      <c r="X62" s="19"/>
-      <c r="Y62" s="27"/>
-    </row>
-    <row r="63" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B63" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="C63" s="20"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="57"/>
-      <c r="K63" s="4"/>
-      <c r="L63" s="56"/>
-      <c r="M63" s="20"/>
-      <c r="N63" s="4"/>
-      <c r="O63" s="19"/>
-      <c r="P63" s="57"/>
-      <c r="Q63" s="56"/>
-      <c r="R63" s="20"/>
-      <c r="S63" s="4"/>
-      <c r="T63" s="4"/>
-      <c r="U63" s="4"/>
-      <c r="V63" s="4"/>
-      <c r="W63" s="4"/>
-      <c r="X63" s="19"/>
-      <c r="Y63" s="27"/>
-    </row>
-    <row r="64" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B64" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C64" s="20"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="16"/>
-      <c r="F64" s="17"/>
-      <c r="G64" s="17"/>
-      <c r="H64" s="4"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="57"/>
-      <c r="K64" s="4"/>
-      <c r="L64" s="56"/>
-      <c r="M64" s="20"/>
-      <c r="N64" s="4"/>
-      <c r="O64" s="19"/>
-      <c r="P64" s="57"/>
-      <c r="Q64" s="56"/>
-      <c r="R64" s="20"/>
-      <c r="S64" s="4"/>
-      <c r="T64" s="4"/>
-      <c r="U64" s="4"/>
-      <c r="V64" s="4"/>
-      <c r="W64" s="4"/>
-      <c r="X64" s="19"/>
-      <c r="Y64" s="27"/>
-    </row>
-    <row r="65" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B65" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C65" s="20"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="16"/>
-      <c r="F65" s="17"/>
-      <c r="G65" s="17"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="57"/>
-      <c r="K65" s="4"/>
-      <c r="L65" s="56"/>
-      <c r="M65" s="20"/>
-      <c r="N65" s="4"/>
-      <c r="O65" s="19"/>
-      <c r="P65" s="57"/>
-      <c r="Q65" s="56"/>
-      <c r="R65" s="20"/>
-      <c r="S65" s="4"/>
-      <c r="T65" s="4"/>
-      <c r="U65" s="4"/>
-      <c r="V65" s="4"/>
-      <c r="W65" s="4"/>
-      <c r="X65" s="19"/>
-      <c r="Y65" s="27"/>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B66" s="27"/>
-      <c r="C66" s="20"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="57"/>
-      <c r="K66" s="4"/>
-      <c r="L66" s="56"/>
-      <c r="M66" s="20"/>
-      <c r="N66" s="4"/>
-      <c r="O66" s="19"/>
-      <c r="P66" s="57"/>
-      <c r="Q66" s="56"/>
-      <c r="R66" s="20"/>
-      <c r="S66" s="4"/>
-      <c r="T66" s="4"/>
-      <c r="U66" s="4"/>
-      <c r="V66" s="4"/>
-      <c r="W66" s="4"/>
-      <c r="X66" s="19"/>
-      <c r="Y66" s="27"/>
-    </row>
-    <row r="67" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B67" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C67" s="20"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="57"/>
-      <c r="K67" s="4"/>
-      <c r="L67" s="56"/>
-      <c r="M67" s="20"/>
-      <c r="N67" s="4"/>
-      <c r="O67" s="19"/>
-      <c r="P67" s="57"/>
-      <c r="Q67" s="56"/>
-      <c r="R67" s="20"/>
-      <c r="S67" s="4"/>
-      <c r="T67" s="4"/>
-      <c r="U67" s="4"/>
-      <c r="V67" s="4"/>
-      <c r="W67" s="4"/>
-      <c r="X67" s="19"/>
-      <c r="Y67" s="27"/>
-    </row>
-    <row r="68" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B68" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C68" s="20"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="100"/>
-      <c r="F68" s="100"/>
-      <c r="G68" s="100"/>
-      <c r="H68" s="4"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="57"/>
-      <c r="K68" s="4"/>
-      <c r="L68" s="56"/>
-      <c r="M68" s="98"/>
-      <c r="N68" s="13"/>
-      <c r="O68" s="99"/>
-      <c r="P68" s="57"/>
-      <c r="Q68" s="56"/>
-      <c r="R68" s="20"/>
-      <c r="S68" s="4"/>
-      <c r="T68" s="4"/>
-      <c r="U68" s="4"/>
-      <c r="V68" s="4"/>
-      <c r="W68" s="4"/>
-      <c r="X68" s="19"/>
-      <c r="Y68" s="27"/>
-    </row>
-    <row r="69" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B69" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="C69" s="20"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="100"/>
-      <c r="F69" s="100"/>
-      <c r="G69" s="100"/>
-      <c r="H69" s="4"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="57"/>
-      <c r="K69" s="4"/>
-      <c r="L69" s="56"/>
-      <c r="M69" s="98"/>
-      <c r="N69" s="13"/>
-      <c r="O69" s="99"/>
-      <c r="P69" s="57"/>
-      <c r="Q69" s="56"/>
-      <c r="R69" s="20"/>
-      <c r="S69" s="4"/>
-      <c r="T69" s="4"/>
-      <c r="U69" s="4"/>
-      <c r="V69" s="4"/>
-      <c r="W69" s="4"/>
-      <c r="X69" s="19"/>
-      <c r="Y69" s="27"/>
-    </row>
-    <row r="70" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B70" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="C70" s="20"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
-      <c r="H70" s="100"/>
-      <c r="I70" s="101"/>
-      <c r="J70" s="102"/>
-      <c r="K70" s="4"/>
-      <c r="L70" s="56"/>
-      <c r="M70" s="98"/>
-      <c r="N70" s="13"/>
-      <c r="O70" s="99"/>
-      <c r="P70" s="57"/>
-      <c r="Q70" s="56"/>
-      <c r="R70" s="20"/>
-      <c r="S70" s="4"/>
-      <c r="T70" s="4"/>
-      <c r="U70" s="4"/>
-      <c r="V70" s="4"/>
-      <c r="W70" s="4"/>
-      <c r="X70" s="19"/>
-      <c r="Y70" s="27"/>
-    </row>
-    <row r="71" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B71" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="C71" s="20"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="100"/>
-      <c r="I71" s="101"/>
-      <c r="J71" s="102"/>
-      <c r="K71" s="4"/>
-      <c r="L71" s="56"/>
-      <c r="M71" s="98"/>
-      <c r="N71" s="13"/>
-      <c r="O71" s="99"/>
-      <c r="P71" s="57"/>
-      <c r="Q71" s="56"/>
-      <c r="R71" s="20"/>
-      <c r="S71" s="4"/>
-      <c r="T71" s="4"/>
-      <c r="U71" s="4"/>
-      <c r="V71" s="4"/>
-      <c r="W71" s="4"/>
-      <c r="X71" s="19"/>
-      <c r="Y71" s="27"/>
-    </row>
-    <row r="72" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B72" s="26"/>
-      <c r="C72" s="20"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="57"/>
-      <c r="K72" s="4"/>
-      <c r="L72" s="56"/>
-      <c r="M72" s="20"/>
-      <c r="N72" s="4"/>
-      <c r="O72" s="19"/>
-      <c r="P72" s="57"/>
-      <c r="Q72" s="56"/>
-      <c r="R72" s="20"/>
-      <c r="S72" s="4"/>
-      <c r="T72" s="4"/>
-      <c r="U72" s="4"/>
-      <c r="V72" s="4"/>
-      <c r="W72" s="4"/>
-      <c r="X72" s="19"/>
-      <c r="Y72" s="27"/>
-    </row>
-    <row r="73" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B73" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="C73" s="20"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="57"/>
-      <c r="K73" s="4"/>
-      <c r="L73" s="56"/>
-      <c r="M73" s="20"/>
-      <c r="N73" s="4"/>
-      <c r="O73" s="19"/>
-      <c r="P73" s="57"/>
-      <c r="Q73" s="56"/>
-      <c r="R73" s="20"/>
-      <c r="S73" s="4"/>
-      <c r="T73" s="4"/>
-      <c r="U73" s="4"/>
-      <c r="V73" s="4"/>
-      <c r="W73" s="4"/>
-      <c r="X73" s="19"/>
-      <c r="Y73" s="27"/>
-    </row>
-    <row r="74" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B74" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C74" s="20"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="105"/>
-      <c r="F74" s="105"/>
-      <c r="G74" s="105"/>
-      <c r="H74" s="4"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="57"/>
-      <c r="K74" s="4"/>
-      <c r="L74" s="56"/>
-      <c r="M74" s="20"/>
-      <c r="N74" s="4"/>
-      <c r="O74" s="19"/>
-      <c r="P74" s="57"/>
-      <c r="Q74" s="56"/>
-      <c r="R74" s="20"/>
-      <c r="S74" s="4"/>
-      <c r="T74" s="4"/>
-      <c r="U74" s="4"/>
-      <c r="V74" s="4"/>
-      <c r="W74" s="4"/>
-      <c r="X74" s="19"/>
-      <c r="Y74" s="27"/>
-    </row>
-    <row r="75" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B75" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C75" s="20"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
-      <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="57"/>
-      <c r="K75" s="4"/>
-      <c r="L75" s="56"/>
-      <c r="M75" s="20"/>
-      <c r="N75" s="4"/>
-      <c r="O75" s="19"/>
-      <c r="P75" s="57"/>
-      <c r="Q75" s="56"/>
-      <c r="R75" s="20"/>
-      <c r="S75" s="4"/>
-      <c r="T75" s="4"/>
-      <c r="U75" s="4"/>
-      <c r="V75" s="4"/>
-      <c r="W75" s="4"/>
-      <c r="X75" s="19"/>
-      <c r="Y75" s="27"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="67"/>
+      <c r="J75" s="63"/>
+      <c r="K75" s="9"/>
+      <c r="L75" s="69"/>
+      <c r="M75" s="66"/>
+      <c r="N75" s="9"/>
+      <c r="O75" s="67"/>
+      <c r="P75" s="63"/>
+      <c r="Q75" s="69"/>
+      <c r="R75" s="66"/>
+      <c r="S75" s="9"/>
+      <c r="T75" s="9"/>
+      <c r="U75" s="9"/>
+      <c r="V75" s="9"/>
+      <c r="W75" s="9"/>
+      <c r="X75" s="67"/>
+      <c r="Y75" s="17"/>
     </row>
     <row r="76" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B76" s="26"/>
-      <c r="C76" s="20"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
-      <c r="F76" s="4"/>
-      <c r="G76" s="4"/>
-      <c r="H76" s="4"/>
-      <c r="I76" s="19"/>
-      <c r="J76" s="57"/>
-      <c r="K76" s="4"/>
-      <c r="L76" s="56"/>
-      <c r="M76" s="20"/>
-      <c r="N76" s="4"/>
-      <c r="O76" s="19"/>
-      <c r="P76" s="57"/>
-      <c r="Q76" s="56"/>
-      <c r="R76" s="20"/>
-      <c r="S76" s="4"/>
-      <c r="T76" s="4"/>
-      <c r="U76" s="4"/>
-      <c r="V76" s="4"/>
-      <c r="W76" s="4"/>
-      <c r="X76" s="19"/>
-      <c r="Y76" s="27"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="67"/>
+      <c r="J76" s="63"/>
+      <c r="K76" s="9"/>
+      <c r="L76" s="69"/>
+      <c r="M76" s="66"/>
+      <c r="N76" s="9"/>
+      <c r="O76" s="67"/>
+      <c r="P76" s="63"/>
+      <c r="Q76" s="69"/>
+      <c r="R76" s="66"/>
+      <c r="S76" s="9"/>
+      <c r="T76" s="9"/>
+      <c r="U76" s="9"/>
+      <c r="V76" s="9"/>
+      <c r="W76" s="9"/>
+      <c r="X76" s="67"/>
+      <c r="Y76" s="17"/>
     </row>
     <row r="77" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B77" s="28" t="s">
+      <c r="B77" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C77" s="20"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="4"/>
-      <c r="H77" s="4"/>
-      <c r="I77" s="19"/>
-      <c r="J77" s="57"/>
-      <c r="K77" s="4"/>
-      <c r="L77" s="56"/>
-      <c r="M77" s="20"/>
-      <c r="N77" s="4"/>
-      <c r="O77" s="19"/>
-      <c r="P77" s="57"/>
-      <c r="Q77" s="56"/>
-      <c r="R77" s="20"/>
-      <c r="S77" s="4"/>
-      <c r="T77" s="4"/>
-      <c r="U77" s="4"/>
-      <c r="V77" s="4"/>
-      <c r="W77" s="4"/>
-      <c r="X77" s="19"/>
-      <c r="Y77" s="27"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="67"/>
+      <c r="J77" s="63"/>
+      <c r="K77" s="9"/>
+      <c r="L77" s="69"/>
+      <c r="M77" s="66"/>
+      <c r="N77" s="9"/>
+      <c r="O77" s="67"/>
+      <c r="P77" s="63"/>
+      <c r="Q77" s="69"/>
+      <c r="R77" s="66"/>
+      <c r="S77" s="9"/>
+      <c r="T77" s="9"/>
+      <c r="U77" s="9"/>
+      <c r="V77" s="9"/>
+      <c r="W77" s="9"/>
+      <c r="X77" s="67"/>
+      <c r="Y77" s="17"/>
     </row>
     <row r="78" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="29" t="s">
+      <c r="B78" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C78" s="20"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="4"/>
-      <c r="H78" s="4"/>
-      <c r="I78" s="19"/>
-      <c r="J78" s="60"/>
-      <c r="K78" s="61"/>
-      <c r="L78" s="62"/>
-      <c r="M78" s="50"/>
-      <c r="N78" s="18"/>
-      <c r="O78" s="64"/>
-      <c r="P78" s="71"/>
-      <c r="Q78" s="72"/>
-      <c r="R78" s="50"/>
-      <c r="S78" s="18"/>
-      <c r="T78" s="18"/>
-      <c r="U78" s="18"/>
-      <c r="V78" s="18"/>
-      <c r="W78" s="4"/>
-      <c r="X78" s="19"/>
-      <c r="Y78" s="75"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="67"/>
+      <c r="J78" s="78"/>
+      <c r="K78" s="79"/>
+      <c r="L78" s="80"/>
+      <c r="M78" s="66"/>
+      <c r="N78" s="9"/>
+      <c r="O78" s="67"/>
+      <c r="P78" s="78"/>
+      <c r="Q78" s="80"/>
+      <c r="R78" s="66"/>
+      <c r="S78" s="9"/>
+      <c r="T78" s="9"/>
+      <c r="U78" s="9"/>
+      <c r="V78" s="9"/>
+      <c r="W78" s="9"/>
+      <c r="X78" s="67"/>
+      <c r="Y78" s="44"/>
     </row>
     <row r="79" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B79" s="2"/>
+      <c r="D79" s="81"/>
+      <c r="E79" s="81"/>
+      <c r="F79" s="81"/>
+      <c r="G79" s="81"/>
+      <c r="H79" s="81"/>
+      <c r="I79" s="81"/>
+      <c r="J79" s="81"/>
+      <c r="K79" s="81"/>
+      <c r="L79" s="81"/>
+      <c r="M79" s="81"/>
+      <c r="N79" s="81"/>
+      <c r="O79" s="81"/>
+      <c r="P79" s="81"/>
+      <c r="Q79" s="81"/>
+      <c r="R79" s="81"/>
+      <c r="S79" s="81"/>
+      <c r="T79" s="81"/>
+      <c r="U79" s="81"/>
+      <c r="V79" s="81"/>
+      <c r="W79" s="81"/>
+      <c r="X79" s="81"/>
     </row>
     <row r="80" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B80" s="2"/>
+      <c r="H80" s="81"/>
+      <c r="I80" s="81"/>
+      <c r="J80" s="81"/>
+      <c r="K80" s="81"/>
+      <c r="L80" s="81"/>
+      <c r="M80" s="81"/>
+      <c r="N80" s="81"/>
+      <c r="O80" s="81"/>
+      <c r="P80" s="81"/>
+      <c r="Q80" s="81"/>
+      <c r="R80" s="81"/>
+      <c r="S80" s="81"/>
+      <c r="T80" s="81"/>
+      <c r="U80" s="81"/>
+      <c r="V80" s="81"/>
+      <c r="W80" s="81"/>
+      <c r="X80" s="81"/>
+    </row>
+    <row r="81" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="H81" s="81"/>
+      <c r="I81" s="81"/>
+      <c r="J81" s="81"/>
+      <c r="K81" s="81"/>
+      <c r="L81" s="81"/>
+      <c r="M81" s="81"/>
+      <c r="N81" s="81"/>
+      <c r="O81" s="81"/>
+      <c r="P81" s="81"/>
+      <c r="Q81" s="81"/>
+      <c r="R81" s="81"/>
+      <c r="S81" s="81"/>
+      <c r="T81" s="81"/>
+      <c r="U81" s="81"/>
+      <c r="V81" s="81"/>
+      <c r="W81" s="81"/>
+      <c r="X81" s="81"/>
+    </row>
+    <row r="82" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="H82" s="81"/>
+      <c r="I82" s="81"/>
+      <c r="J82" s="81"/>
+      <c r="K82" s="81"/>
+      <c r="L82" s="81"/>
+      <c r="M82" s="81"/>
+      <c r="N82" s="81"/>
+      <c r="O82" s="81"/>
+      <c r="P82" s="81"/>
+      <c r="Q82" s="81"/>
+      <c r="R82" s="81"/>
+      <c r="S82" s="81"/>
+      <c r="T82" s="81"/>
+      <c r="U82" s="81"/>
+      <c r="V82" s="81"/>
+      <c r="W82" s="81"/>
+      <c r="X82" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3427,12 +3403,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -3441,11 +3411,39 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19B82A5D-0A0C-4644-9EB1-4DCDE8889936}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19B82A5D-0A0C-4644-9EB1-4DCDE8889936}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d507507a-b2e4-4a70-9f0d-ba3f89d8d529"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABB4C863-A420-4F41-8427-AE33E43A1B6C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67D537A2-DB92-4DDC-82ED-95C5C934A12A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -3459,12 +3457,4 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABB4C863-A420-4F41-8427-AE33E43A1B6C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>